--- a/tests/test_data/notice_transformer/test_repository/test_package3/transformation/conceptual_mappings.xlsx
+++ b/tests/test_data/notice_transformer/test_repository/test_package3/transformation/conceptual_mappings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -384,7 +384,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="729">
   <si>
     <t xml:space="preserve">Field</t>
   </si>
@@ -483,10 +483,10 @@
     <t xml:space="preserve">Standard Form Field Name (M)</t>
   </si>
   <si>
-    <t xml:space="preserve">eForm BT-ID (O)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eForm BT Name (O)</t>
+    <t xml:space="preserve">eForm BT-ID (Provisional/Indicative) (O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eForm BT Name (Provisional/Indicative) (O)</t>
   </si>
   <si>
     <t xml:space="preserve">Base XPath (for anchoring) (M)</t>
@@ -4313,6 +4313,12 @@
   </si>
   <si>
     <t xml:space="preserve">Gray font color: Temporary. Revision required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eForm BT-ID (O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eForm BT Name (O)</t>
   </si>
   <si>
     <t xml:space="preserve">    Organisation City</t>
@@ -5079,11 +5085,11 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="17:17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5257,10 +5263,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="17:17 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -5268,16 +5274,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="69" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B1" s="69"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="59" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -5302,10 +5308,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="17:17 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -5313,16 +5319,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="69" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B1" s="69"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="59" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -5347,10 +5353,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="17:17 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -5358,16 +5364,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="69" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B1" s="69"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="59" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -5392,10 +5398,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="17:17 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -5403,16 +5409,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="69" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B1" s="69"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="59" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -5437,10 +5443,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="17:17 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -5448,16 +5454,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="69" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B1" s="69"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="59" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -5482,10 +5488,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="17:17 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -5493,16 +5499,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="69" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B1" s="69"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="59" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -5527,10 +5533,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="17:17 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
@@ -5553,13 +5559,13 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B4" activeCellId="1" sqref="17:17 B4"/>
+      <selection pane="bottomLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.22"/>
@@ -5605,7 +5611,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
@@ -14481,10 +14487,10 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="17:17 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.22"/>
   </cols>
@@ -14523,10 +14529,10 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="17:17 B20"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.37"/>
   </cols>
@@ -14606,10 +14612,10 @@
   <dimension ref="A2:B20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="17:17 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.78"/>
@@ -14718,10 +14724,10 @@
   <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C41" activeCellId="1" sqref="17:17 C41"/>
+      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.66"/>
@@ -14779,10 +14785,10 @@
         <v>31</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>32</v>
+        <v>707</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>33</v>
+        <v>708</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>34</v>
@@ -14832,25 +14838,25 @@
         <v>69</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E5" s="67" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F5" s="67" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G5" s="67" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H5" s="68" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="I5" s="66" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="J5" s="67" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14880,10 +14886,10 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="17:17 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.11"/>
@@ -14891,40 +14897,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="69" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B1" s="69"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="59" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -14949,10 +14955,10 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="17:17 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -14960,32 +14966,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="69" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B1" s="69"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="59" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -15010,10 +15016,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="17:17 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -15021,16 +15027,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="69" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B1" s="69"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="59" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test_data/notice_transformer/test_repository/test_package3/transformation/conceptual_mappings.xlsx
+++ b/tests/test_data/notice_transformer/test_repository/test_package3/transformation/conceptual_mappings.xlsx
@@ -5,25 +5,28 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Rules" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Resources" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="RML_Modules" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Legend" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Ex sample data" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Ex Controlled List of Roles (CL" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Ex Controlled List for Organisa" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="CL3 (at-vocnuts)" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="CL4 (at-voccountry)" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="CL5 (at-vocbuyer-legal-type)" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="CL6 (at-vocmain-activity)" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="CL7 (at-voccpv)" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="CL8 (at-voccontract-nature)" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="CL9 (at-voccurrency)" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Questions" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Mapping Remarks" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Resources" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="RML_Modules" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="CL1 Controlled List of Roles" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="CL2 Controlled List for Organis" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Legend" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Ex sample data" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Ex Controlled List of Roles (CL" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Ex Controlled List for Organisa" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="CL3 (at-vocnuts)" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="CL4 (at-voccountry)" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="CL5 (at-vocbuyer-legal-type)" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="CL6 (at-vocmain-activity)" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="CL7 (at-voccpv)" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="CL8 (at-voccontract-nature)" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="CL9 (at-voccurrency)" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="Questions" sheetId="19" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -384,7 +387,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="769">
   <si>
     <t xml:space="preserve">Field</t>
   </si>
@@ -4221,6 +4224,57 @@
     <t xml:space="preserve">Please explain in a clear and comprehensive manner why the award of the contract without prior publication in the Official Journal of the European Union is lawful, by stating the relevant facts and, as appropriate, the conclusions of law in accordance with the directive</t>
   </si>
   <si>
+    <t xml:space="preserve">see BT-557 | BT-157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBJECT_CONTRACT/LOT_DIVISION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no attribute defined in ePO to explicitly represent this information.
+We can infer it from the RDF data, by checking if there are more than one lot in the notice (e.g. COUNT(epo:Lot &gt; 1)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBJECT_CONTRACT/NO_LOT_DIVISION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no attribute defined in ePO to explicitly represent this information.
+We can infer it from the RDF data, by checking if there is only one lot in the notice (e.g. COUNT(epo:Lot = 1)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V.0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWARD_CONTRACT/LOT_NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are using the LOT_NO element to create the LotIdentifier value. This is done in Section II.
+The LOT_NO that is specified in Section V is used in the technical mapping to connect the contract to the right lot (which was created in Section II).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V.0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWARD_CONTRACT/NO_AWARDED_CONTRACT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the NO_AWARDED_CONTRACT XML element is present in a particular AWARD_CONTRACT element, then there will be no Contract instance created for this case. We can infer the non-awarded lot (for which there is no contract signed) with a SPARQL query.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT-768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/NO_AWARDED_TO_GROUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the NO_AWARDED_TO_GROUP XML element is presentfor a particular awarded contract, then there will be no OrganisationGroup instance created for this awarded contract. We can infer the presence of this XML element from the RDF data, by checking if there is not an OrganisationGroup within a given Contract with a SPARQL query.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/NO_SME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The presence of the &lt;NO_SME&gt; element means that the user did not check the "is an SME" checkbox in the form, which means that we don't have information about whether an organisation is an SME or not. There is no value in the vocabulary to express the "no SME" case: http://publications.europa.eu/resource/authority/economic-operator-size, so we can't represent the information that is in XML accurately in RDF</t>
+  </si>
+  <si>
     <t xml:space="preserve">File name</t>
   </si>
   <si>
@@ -4267,6 +4321,102 @@
   </si>
   <si>
     <t xml:space="preserve">section 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informal (if possible to become formal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field Value (in XML)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapping Reference (in ePO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SuperType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XML PATH Fragment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AgentInRole == ADDRESS_CONTRACTING_BODY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epo:Buyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epo:AgentInRole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AgentInRole == ADDRESS_CONTRACTING_BODY_ADDITIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AgentInRole == central_purchesing_authority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epo:CentralPurchasingAuthority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AgentInRole == winner (AWARDED_CONTRACT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epo:Winner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AgentInRole === section 6 Review body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epo:Reviewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADDRESS_REVIEW_BODY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AgentInRole === section 6 Body responsible for mediation procedures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epo:Mediator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADDRESS_MEDIATION_BODY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AgentInRole === section 6 Service from which information about the review procedure may be obtained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epo:ReviewProcedureInformationProvider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADDRESS_REVIEW_INFO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL2 Controlled List for Organis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_natural_person == True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epo:Person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_natural_person == False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org:Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section 5 (AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/SME)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epo:Business </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SME</t>
   </si>
   <si>
     <t xml:space="preserve">Property path</t>
@@ -4393,40 +4543,13 @@
 epo:Address epo:hasCityName Text</t>
   </si>
   <si>
-    <t xml:space="preserve">Informal (if possible to become formal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field Value (in XML)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mapping Reference (in ePO)</t>
-  </si>
-  <si>
     <t xml:space="preserve">role == contracting_body</t>
   </si>
   <si>
-    <t xml:space="preserve">epo:Buyer</t>
-  </si>
-  <si>
     <t xml:space="preserve">role == central_purchesing_authority</t>
   </si>
   <si>
-    <t xml:space="preserve">epo:CentralPurchasingAuthority</t>
-  </si>
-  <si>
     <t xml:space="preserve">role == winner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epo:Winner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_natural_person == True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epo:Person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_natural_person == False</t>
   </si>
   <si>
     <t xml:space="preserve">epo:Organisation</t>
@@ -4441,7 +4564,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4537,6 +4660,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFB7B7B7"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4556,6 +4686,13 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -4593,6 +4730,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFE699"/>
         <bgColor rgb="FFFFCC99"/>
       </patternFill>
@@ -4621,14 +4764,8 @@
         <bgColor rgb="FFCC99FF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -4648,6 +4785,13 @@
       <right/>
       <top/>
       <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -4691,7 +4835,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="76">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4880,11 +5024,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4892,7 +5068,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4912,15 +5104,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4928,28 +5120,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -5014,7 +5202,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FFB7B7B7"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -5036,7 +5224,7 @@
       <rgbColor rgb="FFC6E0B7"/>
       <rgbColor rgb="FFEEECE1"/>
       <rgbColor rgb="FFFFE699"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FFFF77FF"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -5069,7 +5257,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5243,30 +5431,54 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="23.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="26.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="29.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="28.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="64" t="s">
-        <v>717</v>
-      </c>
-      <c r="B1" s="64"/>
+      <c r="A1" s="58" t="s">
+        <v>708</v>
+      </c>
+      <c r="B1" s="58"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="54" t="s">
-        <v>718</v>
-      </c>
-      <c r="B2" s="54" t="s">
+      <c r="A2" s="66" t="s">
+        <v>710</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>719</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>721</v>
       </c>
     </row>
   </sheetData>
@@ -5288,10 +5500,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5301,17 +5513,33 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="64" t="s">
-        <v>717</v>
-      </c>
-      <c r="B1" s="64"/>
+      <c r="A1" s="58" t="s">
+        <v>708</v>
+      </c>
+      <c r="B1" s="58"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="54" t="s">
-        <v>718</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>719</v>
+      <c r="A2" s="66" t="s">
+        <v>710</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -5336,7 +5564,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5346,17 +5574,17 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="64" t="s">
-        <v>717</v>
-      </c>
-      <c r="B1" s="64"/>
+      <c r="A1" s="58" t="s">
+        <v>708</v>
+      </c>
+      <c r="B1" s="58"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="54" t="s">
-        <v>718</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>719</v>
+      <c r="A2" s="66" t="s">
+        <v>710</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -5381,7 +5609,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5391,17 +5619,17 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="64" t="s">
-        <v>717</v>
-      </c>
-      <c r="B1" s="64"/>
+      <c r="A1" s="58" t="s">
+        <v>708</v>
+      </c>
+      <c r="B1" s="58"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="54" t="s">
-        <v>718</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>719</v>
+      <c r="A2" s="66" t="s">
+        <v>710</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -5426,7 +5654,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5436,17 +5664,17 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="64" t="s">
-        <v>717</v>
-      </c>
-      <c r="B1" s="64"/>
+      <c r="A1" s="58" t="s">
+        <v>708</v>
+      </c>
+      <c r="B1" s="58"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="54" t="s">
-        <v>718</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>719</v>
+      <c r="A2" s="66" t="s">
+        <v>710</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -5471,7 +5699,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5481,17 +5709,17 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="64" t="s">
-        <v>717</v>
-      </c>
-      <c r="B1" s="64"/>
+      <c r="A1" s="58" t="s">
+        <v>708</v>
+      </c>
+      <c r="B1" s="58"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="54" t="s">
-        <v>718</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>719</v>
+      <c r="A2" s="66" t="s">
+        <v>710</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -5513,10 +5741,145 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="23.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="26.33"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="58" t="s">
+        <v>708</v>
+      </c>
+      <c r="B1" s="58"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="66" t="s">
+        <v>710</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>711</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="23.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="26.33"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="58" t="s">
+        <v>708</v>
+      </c>
+      <c r="B1" s="58"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="66" t="s">
+        <v>710</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>711</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="23.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="26.33"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="58" t="s">
+        <v>708</v>
+      </c>
+      <c r="B1" s="58"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="66" t="s">
+        <v>710</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>711</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5542,10 +5905,10 @@
   </sheetPr>
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="G5" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14596,10 +14959,241 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:Z7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="35.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="7" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="40"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="7" width="12.63"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>676</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="50" t="s">
+        <v>677</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>676</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="50" t="s">
+        <v>679</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="49" t="s">
+        <v>681</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>449</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>450</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>451</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>682</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="52" t="s">
+        <v>684</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>459</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>460</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>461</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>685</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>686</v>
+      </c>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+    </row>
+    <row r="6" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="52" t="s">
+        <v>512</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>513</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>687</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="E6" s="50" t="s">
+        <v>688</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>689</v>
+      </c>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+    </row>
+    <row r="7" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="49" t="s">
+        <v>542</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>543</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>544</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>690</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>691</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:B2 A7:B7">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>regexmatch($G2,"^[^.]+$")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:B2 A7:B7">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>regexmatch($G2,"^[^.]+\.[^.]+$")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:B2 A7:B7">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>regexmatch($G2,"^[^.]+\.[^.]+\.[^.]+$")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:B2 A7:B7">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>regexmatch($G2,"^[^.]+\.[^.]+\.[^.]+\.[^.]+$")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:B2 A7:B7">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>regexmatch($G2,"^[^.]+\.[^.]+\.[^.]+\.[^.]+\.[^.]+$")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14608,18 +15202,18 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="47" t="s">
-        <v>676</v>
+      <c r="A1" s="55" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="48" t="s">
-        <v>677</v>
+      <c r="A2" s="56" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="48" t="s">
-        <v>678</v>
+      <c r="A3" s="56" t="s">
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -14633,7 +15227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -14641,7 +15235,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14650,59 +15244,59 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="49" t="s">
-        <v>676</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>679</v>
+      <c r="A1" s="57" t="s">
+        <v>692</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50" t="s">
-        <v>680</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>681</v>
+      <c r="A2" s="52" t="s">
+        <v>696</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50" t="s">
-        <v>682</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>683</v>
+      <c r="A3" s="52" t="s">
+        <v>698</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="50" t="s">
-        <v>684</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>685</v>
+      <c r="A4" s="52" t="s">
+        <v>700</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="50" t="s">
-        <v>686</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>687</v>
+      <c r="A5" s="52" t="s">
+        <v>702</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="50" t="s">
-        <v>688</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>689</v>
+      <c r="A6" s="52" t="s">
+        <v>704</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="50" t="s">
-        <v>690</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>691</v>
+      <c r="A7" s="52" t="s">
+        <v>706</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -14716,7 +15310,245 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="81.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="46.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="13.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="27.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="58" t="s">
+        <v>708</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58" t="s">
+        <v>709</v>
+      </c>
+      <c r="D1" s="58"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="57" t="s">
+        <v>710</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>711</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>712</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="59" t="s">
+        <v>714</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>715</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>716</v>
+      </c>
+      <c r="D3" s="60" t="str">
+        <f aca="false">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
+        <v>ADDRESS_CONTRACTING_BODY</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="59" t="s">
+        <v>717</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>715</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>716</v>
+      </c>
+      <c r="D4" s="52" t="str">
+        <f aca="false">RIGHT(A4,LEN(A4) - (FIND(" == ",A4) + 3))</f>
+        <v>ADDRESS_CONTRACTING_BODY_ADDITIONAL</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="50" t="s">
+        <v>718</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>719</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="50" t="s">
+        <v>720</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>721</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="52" t="s">
+        <v>722</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>723</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>716</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="52" t="s">
+        <v>725</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>726</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>716</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="52" t="s">
+        <v>728</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>729</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>716</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>730</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="70.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="26.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="17.38"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="58" t="s">
+        <v>731</v>
+      </c>
+      <c r="B1" s="58"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="57" t="s">
+        <v>710</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>711</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>712</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="52" t="s">
+        <v>732</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="52" t="s">
+        <v>734</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>735</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="52" t="s">
+        <v>737</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>738</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>735</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>739</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -14724,7 +15556,7 @@
   <dimension ref="A2:B20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14734,87 +15566,87 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="51" t="s">
-        <v>692</v>
+      <c r="A2" s="63" t="s">
+        <v>740</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>693</v>
+        <v>741</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="52" t="s">
-        <v>694</v>
+      <c r="A3" s="64" t="s">
+        <v>742</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>695</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="53" t="s">
-        <v>696</v>
+      <c r="A4" s="65" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="54" t="s">
-        <v>697</v>
+      <c r="A8" s="66" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="54" t="s">
-        <v>698</v>
+      <c r="A9" s="66" t="s">
+        <v>746</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>699</v>
+        <v>747</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="55" t="s">
-        <v>700</v>
+      <c r="B10" s="67" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11"/>
-      <c r="B11" s="56" t="s">
-        <v>701</v>
+      <c r="B11" s="68" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="57" t="s">
-        <v>702</v>
+      <c r="B12" s="69" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="58" t="s">
-        <v>703</v>
+      <c r="B13" s="70" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="59" t="s">
-        <v>704</v>
+      <c r="B14" s="71" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="54"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="54" t="s">
-        <v>705</v>
+      <c r="A16" s="66" t="s">
+        <v>753</v>
       </c>
       <c r="B16" s="31"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="60"/>
+      <c r="B17" s="72"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="54" t="s">
-        <v>706</v>
+      <c r="A20" s="66" t="s">
+        <v>754</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>707</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>
@@ -14828,7 +15660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -14836,7 +15668,7 @@
   <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
+      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14897,10 +15729,10 @@
         <v>31</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>708</v>
+        <v>756</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>709</v>
+        <v>757</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>34</v>
@@ -14940,35 +15772,35 @@
       <c r="AB2" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="73" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="61" t="s">
-        <v>710</v>
-      </c>
-      <c r="E5" s="62" t="s">
-        <v>711</v>
-      </c>
-      <c r="F5" s="62" t="s">
-        <v>712</v>
-      </c>
-      <c r="G5" s="62" t="s">
-        <v>713</v>
-      </c>
-      <c r="H5" s="63" t="s">
-        <v>714</v>
-      </c>
-      <c r="I5" s="61" t="s">
-        <v>715</v>
-      </c>
-      <c r="J5" s="62" t="s">
-        <v>716</v>
+      <c r="D5" s="73" t="s">
+        <v>758</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>759</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>760</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>761</v>
+      </c>
+      <c r="H5" s="75" t="s">
+        <v>762</v>
+      </c>
+      <c r="I5" s="73" t="s">
+        <v>763</v>
+      </c>
+      <c r="J5" s="74" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14988,179 +15820,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="29.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="28.11"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="64" t="s">
-        <v>717</v>
-      </c>
-      <c r="B1" s="64"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="54" t="s">
-        <v>718</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="23.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="26.33"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="64" t="s">
-        <v>717</v>
-      </c>
-      <c r="B1" s="64"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="54" t="s">
-        <v>718</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>729</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="23.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="26.33"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="64" t="s">
-        <v>717</v>
-      </c>
-      <c r="B1" s="64"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="54" t="s">
-        <v>718</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>719</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>